--- a/06_distance_LitoLi_intercage_litype4_CONTCAR_positive_41_inTERcage.xlsx
+++ b/06_distance_LitoLi_intercage_litype4_CONTCAR_positive_41_inTERcage.xlsx
@@ -291,7 +291,7 @@
   <dimension ref="A1:BB27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB27" activeCellId="0" sqref="BB27"/>
+      <selection pane="topLeft" activeCell="W36" activeCellId="0" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
